--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="245">
   <si>
     <t>番号</t>
   </si>
@@ -759,6 +759,16 @@
   </si>
   <si>
     <t>チェック中</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>様式作成⇒確認中</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウシキサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カクニンチュウ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1695,10 +1705,10 @@
   <dimension ref="A1:AN133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1832,7 +1842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1915,7 +1925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1989,7 +1999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2484,7 +2494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2540,7 +2550,7 @@
         <v>46</v>
       </c>
       <c r="W10" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="X10" t="s">
         <v>68</v>
@@ -2561,7 +2571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2617,7 +2627,7 @@
         <v>46</v>
       </c>
       <c r="W11" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="X11" t="s">
         <v>68</v>
@@ -3641,7 +3651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3910,7 +3920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4046,7 +4056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>48</v>
       </c>
       <c r="W35" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="X35" t="s">
         <v>100</v>
@@ -4366,7 +4376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4422,7 +4432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4478,7 +4488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4534,7 +4544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4590,7 +4600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4646,7 +4656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4702,7 +4712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5241,7 +5251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5297,7 +5307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5415,7 +5425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5471,7 +5481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5527,7 +5537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5583,7 +5593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5695,7 +5705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5751,7 +5761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5807,7 +5817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5919,7 +5929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6141,7 +6151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6197,7 +6207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6253,7 +6263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6309,7 +6319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6519,7 +6529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6652,7 +6662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6785,7 +6795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6841,7 +6851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6897,7 +6907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6953,7 +6963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7009,7 +7019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7121,7 +7131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7177,7 +7187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7233,7 +7243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7289,7 +7299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7345,7 +7355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7401,7 +7411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7457,7 +7467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7569,7 +7579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7625,7 +7635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7681,7 +7691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7737,7 +7747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7793,7 +7803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7849,7 +7859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7905,7 +7915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7961,7 +7971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8017,7 +8027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8073,7 +8083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8200,7 +8210,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8256,7 +8266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8312,7 +8322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9025,7 +9035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9081,7 +9091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9140,7 +9150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9196,7 +9206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9252,7 +9262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9308,7 +9318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9364,7 +9374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9420,7 +9430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9476,7 +9486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:30" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -10191,7 +10201,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B133" t="s">
         <v>173</v>
       </c>
@@ -10243,6 +10253,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AH133">
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="21">
       <filters blank="1">
         <filter val="NDS"/>
@@ -10264,5 +10279,6 @@
   </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckg05\Desktop\syllabus2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.240\share\教務構成管理\02_Doc\88_2021年度計画\01_年間指導計画\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="246">
   <si>
     <t>番号</t>
   </si>
@@ -316,9 +316,6 @@
     <t>パソコン入門</t>
   </si>
   <si>
-    <t>着手</t>
-  </si>
-  <si>
     <t>パソコン操作</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
   </si>
   <si>
     <t>メディア技術</t>
-  </si>
-  <si>
-    <t>メディアコミュニケーション概論</t>
   </si>
   <si>
     <t>開発手法</t>
@@ -768,6 +762,27 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>カクニンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>岡本先生チェック依頼中</t>
+    <rPh sb="0" eb="4">
+      <t>オカモトセンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イライチュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>チェック中</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1705,7 +1720,7 @@
   <dimension ref="A1:AN133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
@@ -2550,7 +2565,7 @@
         <v>46</v>
       </c>
       <c r="W10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="X10" t="s">
         <v>68</v>
@@ -2627,7 +2642,7 @@
         <v>46</v>
       </c>
       <c r="W11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="X11" t="s">
         <v>68</v>
@@ -3781,7 +3796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3840,7 +3855,7 @@
         <v>48</v>
       </c>
       <c r="W31" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="X31" t="s">
         <v>37</v>
@@ -3875,7 +3890,7 @@
         <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
         <v>69</v>
@@ -3931,7 +3946,7 @@
         <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
         <v>69</v>
@@ -3976,7 +3991,7 @@
         <v>36</v>
       </c>
       <c r="X33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y33">
         <v>16</v>
@@ -3999,7 +4014,7 @@
         <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
         <v>69</v>
@@ -4044,7 +4059,7 @@
         <v>36</v>
       </c>
       <c r="X34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y34">
         <v>16</v>
@@ -4067,7 +4082,7 @@
         <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
         <v>69</v>
@@ -4112,10 +4127,10 @@
         <v>48</v>
       </c>
       <c r="W35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="X35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z35" t="s">
         <v>69</v>
@@ -4133,10 +4148,10 @@
         <v>39</v>
       </c>
       <c r="AG35" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH35" t="s">
         <v>104</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.4">
@@ -4150,7 +4165,7 @@
         <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>69</v>
@@ -4230,7 +4245,7 @@
         <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
         <v>69</v>
@@ -4307,10 +4322,10 @@
         <v>92</v>
       </c>
       <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
         <v>108</v>
-      </c>
-      <c r="D38" t="s">
-        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>69</v>
@@ -4384,10 +4399,10 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>69</v>
@@ -4440,10 +4455,10 @@
         <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>69</v>
@@ -4496,10 +4511,10 @@
         <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>69</v>
@@ -4552,10 +4567,10 @@
         <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>69</v>
@@ -4564,13 +4579,13 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4608,10 +4623,10 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>69</v>
@@ -4664,10 +4679,10 @@
         <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
         <v>69</v>
@@ -4720,10 +4735,10 @@
         <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>69</v>
@@ -4780,7 +4795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4788,10 +4803,10 @@
         <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
         <v>69</v>
@@ -4839,10 +4854,10 @@
         <v>55</v>
       </c>
       <c r="W46" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="X46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z46" t="s">
         <v>69</v>
@@ -4860,7 +4875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4868,10 +4883,10 @@
         <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
         <v>69</v>
@@ -4919,10 +4934,10 @@
         <v>55</v>
       </c>
       <c r="W47" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="X47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z47" t="s">
         <v>69</v>
@@ -4940,7 +4955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4948,10 +4963,10 @@
         <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
         <v>69</v>
@@ -4999,10 +5014,10 @@
         <v>55</v>
       </c>
       <c r="W48" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="X48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z48" t="s">
         <v>69</v>
@@ -5028,10 +5043,10 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
         <v>69</v>
@@ -5052,7 +5067,7 @@
         <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5105,10 +5120,10 @@
         <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
         <v>69</v>
@@ -5129,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -5182,10 +5197,10 @@
         <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
         <v>69</v>
@@ -5206,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5259,10 +5274,10 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
         <v>69</v>
@@ -5318,7 +5333,7 @@
         <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
         <v>69</v>
@@ -5363,10 +5378,10 @@
         <v>36</v>
       </c>
       <c r="AG53" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH53" t="s">
         <v>127</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -5380,7 +5395,7 @@
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
         <v>69</v>
@@ -5436,7 +5451,7 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
         <v>69</v>
@@ -5492,7 +5507,7 @@
         <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
         <v>69</v>
@@ -5548,7 +5563,7 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
         <v>69</v>
@@ -5604,7 +5619,7 @@
         <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
         <v>69</v>
@@ -5660,7 +5675,7 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
         <v>69</v>
@@ -5716,7 +5731,7 @@
         <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
         <v>69</v>
@@ -5772,7 +5787,7 @@
         <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
         <v>69</v>
@@ -5828,7 +5843,7 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
         <v>69</v>
@@ -5884,7 +5899,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
         <v>69</v>
@@ -5940,7 +5955,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
         <v>69</v>
@@ -5996,7 +6011,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
         <v>69</v>
@@ -6044,7 +6059,7 @@
         <v>48</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="X65" t="s">
         <v>57</v>
@@ -6079,7 +6094,7 @@
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
         <v>69</v>
@@ -6127,10 +6142,10 @@
         <v>48</v>
       </c>
       <c r="W66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y66">
         <v>16</v>
@@ -6156,13 +6171,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
         <v>143</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>144</v>
-      </c>
-      <c r="D67" t="s">
-        <v>145</v>
       </c>
       <c r="E67" t="s">
         <v>69</v>
@@ -6212,13 +6227,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
         <v>143</v>
       </c>
-      <c r="C68" t="s">
-        <v>144</v>
-      </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
         <v>69</v>
@@ -6268,13 +6283,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
         <v>147</v>
-      </c>
-      <c r="D69" t="s">
-        <v>148</v>
       </c>
       <c r="E69" t="s">
         <v>69</v>
@@ -6295,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -6324,13 +6339,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
         <v>149</v>
-      </c>
-      <c r="D70" t="s">
-        <v>150</v>
       </c>
       <c r="E70" t="s">
         <v>69</v>
@@ -6351,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6380,13 +6395,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
@@ -6457,13 +6472,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
         <v>152</v>
-      </c>
-      <c r="D72" t="s">
-        <v>153</v>
       </c>
       <c r="E72" t="s">
         <v>69</v>
@@ -6534,13 +6549,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E73" t="s">
         <v>69</v>
@@ -6590,13 +6605,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="E74" t="s">
         <v>69</v>
@@ -6644,7 +6659,7 @@
         <v>36</v>
       </c>
       <c r="X74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z74" t="s">
         <v>69</v>
@@ -6667,13 +6682,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
         <v>69</v>
@@ -6723,13 +6738,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" t="s">
         <v>159</v>
-      </c>
-      <c r="C76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" t="s">
-        <v>161</v>
       </c>
       <c r="E76" t="s">
         <v>69</v>
@@ -6750,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -6800,13 +6815,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
         <v>160</v>
-      </c>
-      <c r="D77" t="s">
-        <v>162</v>
       </c>
       <c r="E77" t="s">
         <v>69</v>
@@ -6827,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -6856,13 +6871,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
         <v>69</v>
@@ -6883,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -6912,13 +6927,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
         <v>69</v>
@@ -6939,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -6968,13 +6983,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
         <v>69</v>
@@ -6995,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -7024,13 +7039,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
         <v>69</v>
@@ -7051,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -7080,13 +7095,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
         <v>69</v>
@@ -7107,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -7136,13 +7151,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
         <v>69</v>
@@ -7163,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -7192,13 +7207,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E84" t="s">
         <v>69</v>
@@ -7219,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -7248,13 +7263,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
         <v>69</v>
@@ -7275,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -7304,13 +7319,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E86" t="s">
         <v>69</v>
@@ -7360,13 +7375,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E87" t="s">
         <v>69</v>
@@ -7416,13 +7431,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" t="s">
         <v>173</v>
-      </c>
-      <c r="C88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D88" t="s">
-        <v>175</v>
       </c>
       <c r="E88" t="s">
         <v>69</v>
@@ -7472,13 +7487,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E89" t="s">
         <v>69</v>
@@ -7528,19 +7543,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" t="s">
         <v>176</v>
       </c>
-      <c r="D90" t="s">
-        <v>178</v>
-      </c>
       <c r="E90" t="s">
         <v>69</v>
       </c>
       <c r="F90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -7584,19 +7599,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E91" t="s">
         <v>69</v>
       </c>
       <c r="F91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -7640,19 +7655,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
         <v>69</v>
       </c>
       <c r="F92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -7696,19 +7711,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
         <v>69</v>
       </c>
       <c r="F93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G93">
         <v>3</v>
@@ -7752,19 +7767,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
         <v>69</v>
       </c>
       <c r="F94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -7808,13 +7823,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E95" t="s">
         <v>69</v>
@@ -7864,28 +7879,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" t="s">
         <v>184</v>
       </c>
-      <c r="D96" t="s">
-        <v>186</v>
-      </c>
       <c r="E96" t="s">
         <v>69</v>
       </c>
       <c r="F96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -7920,28 +7935,28 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E97" t="s">
         <v>69</v>
       </c>
       <c r="F97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -7976,28 +7991,28 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E98" t="s">
         <v>69</v>
       </c>
       <c r="F98" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -8032,28 +8047,28 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E99" t="s">
         <v>69</v>
       </c>
       <c r="F99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -8088,28 +8103,28 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E100" t="s">
         <v>69</v>
       </c>
       <c r="F100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -8144,13 +8159,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E101" t="s">
         <v>69</v>
@@ -8207,7 +8222,7 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
@@ -8215,13 +8230,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E102" t="s">
         <v>69</v>
@@ -8271,13 +8286,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
         <v>69</v>
@@ -8327,13 +8342,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C104" t="s">
+        <v>193</v>
+      </c>
+      <c r="D104" t="s">
         <v>195</v>
-      </c>
-      <c r="D104" t="s">
-        <v>197</v>
       </c>
       <c r="E104" t="s">
         <v>69</v>
@@ -8383,13 +8398,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E105" t="s">
         <v>69</v>
@@ -8457,13 +8472,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106" t="s">
         <v>198</v>
-      </c>
-      <c r="D106" t="s">
-        <v>200</v>
       </c>
       <c r="E106" t="s">
         <v>69</v>
@@ -8531,19 +8546,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E107" t="s">
         <v>69</v>
       </c>
       <c r="F107" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -8596,19 +8611,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E108" t="s">
         <v>69</v>
       </c>
       <c r="F108" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -8644,7 +8659,7 @@
         <v>35</v>
       </c>
       <c r="V108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W108" t="s">
         <v>36</v>
@@ -8656,13 +8671,13 @@
         <v>69</v>
       </c>
       <c r="AA108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB108">
         <v>8</v>
       </c>
       <c r="AC108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD108" t="s">
         <v>39</v>
@@ -8673,19 +8688,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E109" t="s">
         <v>69</v>
       </c>
       <c r="F109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -8721,7 +8736,7 @@
         <v>35</v>
       </c>
       <c r="V109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W109" t="s">
         <v>36</v>
@@ -8733,13 +8748,13 @@
         <v>69</v>
       </c>
       <c r="AA109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB109">
         <v>8</v>
       </c>
       <c r="AC109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD109" t="s">
         <v>58</v>
@@ -8750,19 +8765,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D110" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E110" t="s">
         <v>69</v>
       </c>
       <c r="F110" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -8804,7 +8819,7 @@
         <v>69</v>
       </c>
       <c r="AA110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB110">
         <v>8</v>
@@ -8815,19 +8830,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E111" t="s">
         <v>69</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -8869,7 +8884,7 @@
         <v>69</v>
       </c>
       <c r="AA111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB111">
         <v>8</v>
@@ -8880,19 +8895,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E112" t="s">
         <v>69</v>
       </c>
       <c r="F112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -8907,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -8949,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="AC112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD112" t="s">
         <v>39</v>
@@ -8960,19 +8975,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C113" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" t="s">
         <v>211</v>
       </c>
-      <c r="D113" t="s">
-        <v>213</v>
-      </c>
       <c r="E113" t="s">
         <v>69</v>
       </c>
       <c r="F113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -8987,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -9029,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="AC113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD113" t="s">
         <v>58</v>
@@ -9040,13 +9055,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" t="s">
         <v>214</v>
-      </c>
-      <c r="C114" t="s">
-        <v>215</v>
-      </c>
-      <c r="D114" t="s">
-        <v>216</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -9096,13 +9111,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
         <v>215</v>
-      </c>
-      <c r="D115" t="s">
-        <v>217</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
@@ -9155,13 +9170,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D116" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
@@ -9211,13 +9226,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" t="s">
         <v>219</v>
-      </c>
-      <c r="C117" t="s">
-        <v>220</v>
-      </c>
-      <c r="D117" t="s">
-        <v>221</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
@@ -9267,13 +9282,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C118" t="s">
+        <v>218</v>
+      </c>
+      <c r="D118" t="s">
         <v>220</v>
-      </c>
-      <c r="D118" t="s">
-        <v>222</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
@@ -9323,13 +9338,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D119" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
@@ -9379,13 +9394,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D120" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
@@ -9435,13 +9450,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D121" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E121" t="s">
         <v>33</v>
@@ -9491,13 +9506,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" t="s">
         <v>225</v>
-      </c>
-      <c r="D122" t="s">
-        <v>227</v>
       </c>
       <c r="E122" t="s">
         <v>33</v>
@@ -9547,13 +9562,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D123" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
@@ -9610,7 +9625,7 @@
         <v>10</v>
       </c>
       <c r="AC123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD123" t="s">
         <v>70</v>
@@ -9621,13 +9636,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D124" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
@@ -9648,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -9669,10 +9684,10 @@
         <v>35</v>
       </c>
       <c r="V124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="X124" t="s">
         <v>68</v>
@@ -9687,7 +9702,7 @@
         <v>10</v>
       </c>
       <c r="AC124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD124" t="s">
         <v>70</v>
@@ -9698,13 +9713,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D125" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
@@ -9761,7 +9776,7 @@
         <v>10</v>
       </c>
       <c r="AC125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD125" t="s">
         <v>70</v>
@@ -9772,13 +9787,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D126" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
@@ -9799,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -9820,7 +9835,7 @@
         <v>35</v>
       </c>
       <c r="V126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W126" t="s">
         <v>36</v>
@@ -9838,7 +9853,7 @@
         <v>10</v>
       </c>
       <c r="AC126" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD126" t="s">
         <v>70</v>
@@ -9849,13 +9864,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D127" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E127" t="s">
         <v>33</v>
@@ -9915,7 +9930,7 @@
         <v>5</v>
       </c>
       <c r="AC127" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD127" t="s">
         <v>70</v>
@@ -9926,13 +9941,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D128" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E128" t="s">
         <v>33</v>
@@ -9953,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -9971,10 +9986,10 @@
         <v>0</v>
       </c>
       <c r="R128" t="s">
+        <v>237</v>
+      </c>
+      <c r="V128" t="s">
         <v>239</v>
-      </c>
-      <c r="V128" t="s">
-        <v>241</v>
       </c>
       <c r="W128" t="s">
         <v>36</v>
@@ -9992,7 +10007,7 @@
         <v>5</v>
       </c>
       <c r="AC128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD128" t="s">
         <v>70</v>
@@ -10003,10 +10018,10 @@
         <v>92</v>
       </c>
       <c r="C129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E129" t="s">
         <v>69</v>
@@ -10045,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="R129" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S129" t="s">
         <v>35</v>
@@ -10056,10 +10071,10 @@
         <v>92</v>
       </c>
       <c r="C130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E130" t="s">
         <v>69</v>
@@ -10098,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="R130" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.4">
@@ -10106,10 +10121,10 @@
         <v>92</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E131" t="s">
         <v>69</v>
@@ -10148,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="R131" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.4">
@@ -10156,10 +10171,10 @@
         <v>92</v>
       </c>
       <c r="C132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E132" t="s">
         <v>69</v>
@@ -10198,18 +10213,18 @@
         <v>0</v>
       </c>
       <c r="R132" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="2:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="B133" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D133" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E133" t="s">
         <v>69</v>
@@ -10248,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="Q133" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -10257,17 +10272,6 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
-    </filterColumn>
-    <filterColumn colId="21">
-      <filters blank="1">
-        <filter val="NDS"/>
-        <filter val="フレミング先生（植田）"/>
-        <filter val="岡本先生"/>
-        <filter val="岡本先生（植田）"/>
-        <filter val="宮本先生（植田）"/>
-        <filter val="植田"/>
-        <filter val="内藤先生（植田）"/>
-      </filters>
     </filterColumn>
     <filterColumn colId="22">
       <filters blank="1">

--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.240\share\教務構成管理\02_Doc\88_2021年度計画\01_年間指導計画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ueda-l540\Desktop\syllabus2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED579C-5CA7-4DD4-91C3-F92DDC78B85C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シラバス・年間指導計画・授業資料作成担当者" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シラバス・年間指導計画・授業資料作成担当者!$A$1:$AH$133</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="247">
   <si>
     <t>番号</t>
   </si>
@@ -786,11 +798,18 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>チェック中</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1437,7 +1456,7 @@
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="42"/>
+    <cellStyle name="標準 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1715,12 +1734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
@@ -2226,8 +2245,8 @@
       <c r="V6" t="s">
         <v>52</v>
       </c>
-      <c r="W6" t="s">
-        <v>36</v>
+      <c r="W6" s="2">
+        <v>0.5</v>
       </c>
       <c r="X6" t="s">
         <v>57</v>
@@ -2487,8 +2506,8 @@
       <c r="V9" t="s">
         <v>52</v>
       </c>
-      <c r="W9" t="s">
-        <v>36</v>
+      <c r="W9" s="2">
+        <v>0.5</v>
       </c>
       <c r="X9" t="s">
         <v>68</v>
@@ -4154,7 +4173,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4213,7 +4232,7 @@
         <v>48</v>
       </c>
       <c r="W36" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="X36" t="s">
         <v>44</v>
@@ -4293,7 +4312,7 @@
         <v>48</v>
       </c>
       <c r="W37" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="X37" t="s">
         <v>44</v>
@@ -10267,7 +10286,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH133">
+  <autoFilter ref="A1:AH133" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="17">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ueda-l540\Desktop\syllabus2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.240\share\教務構成管理\02_Doc\88_2021年度計画\01_年間指導計画\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED579C-5CA7-4DD4-91C3-F92DDC78B85C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="シラバス・年間指導計画・授業資料作成担当者" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シラバス・年間指導計画・授業資料作成担当者!$A$1:$AH$133</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="248">
   <si>
     <t>番号</t>
   </si>
@@ -805,11 +804,18 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>着手</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1456,7 +1462,7 @@
     <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="標準 2" xfId="42"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1734,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN133"/>
   <sheetViews>
@@ -1742,7 +1748,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomRight" activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4312,7 +4318,7 @@
         <v>48</v>
       </c>
       <c r="W37" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="X37" t="s">
         <v>44</v>
@@ -5264,7 +5270,7 @@
         <v>60</v>
       </c>
       <c r="W51" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="X51" t="s">
         <v>68</v>
@@ -10286,7 +10292,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH133" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:AH133">
     <filterColumn colId="17">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="247">
   <si>
     <t>番号</t>
   </si>
@@ -801,13 +801,6 @@
     <t>チェック中</t>
     <rPh sb="4" eb="5">
       <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>着手</t>
-    <rPh sb="0" eb="2">
-      <t>チャクシュ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -5270,7 +5263,7 @@
         <v>60</v>
       </c>
       <c r="W51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="X51" t="s">
         <v>68</v>

--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.240\share\教務構成管理\02_Doc\88_2021年度計画\01_年間指導計画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckg05\Desktop\syllabus2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="249">
   <si>
     <t>番号</t>
   </si>
@@ -801,6 +801,20 @@
     <t>チェック中</t>
     <rPh sb="4" eb="5">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>天神校分をコピー</t>
+    <rPh sb="0" eb="3">
+      <t>テンジンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1738,10 +1752,10 @@
   <dimension ref="A1:AN133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W71" sqref="W71"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4385,10 +4399,10 @@
         <v>35</v>
       </c>
       <c r="V38" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="W38" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="X38" t="s">
         <v>37</v>

--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="シラバス・年間指導計画・授業資料作成担当者" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="282">
   <si>
     <t>番号</t>
   </si>
@@ -741,16 +741,6 @@
   </si>
   <si>
     <t>チェック中</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>岡本先生チェック依頼中</t>
-    <rPh sb="0" eb="4">
-      <t>オカモトセンセイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>イライチュウ</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1032,13 +1022,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>嶋田</t>
-    <rPh sb="0" eb="2">
-      <t>シマダ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>渡辺・森岡</t>
     <rPh sb="0" eb="2">
       <t>ワタナベ</t>
@@ -1052,6 +1035,52 @@
     <t>依頼中</t>
     <rPh sb="0" eb="3">
       <t>イライチュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>チェック中</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>依頼中</t>
+    <rPh sb="0" eb="3">
+      <t>イライチュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ファイル作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>植田</t>
+    <rPh sb="0" eb="2">
+      <t>ウエダ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -2010,10 +2039,10 @@
   <dimension ref="A1:AO148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="V39" activeCellId="1" sqref="V33:V34 V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2095,7 +2124,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -2104,10 +2133,10 @@
         <v>14</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="X1" t="s">
         <v>15</v>
@@ -2152,7 +2181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2221,7 +2250,7 @@
         <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X2" t="s">
         <v>34</v>
@@ -2251,7 +2280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2317,7 +2346,7 @@
         <v>一般生</v>
       </c>
       <c r="W3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X3" t="s">
         <v>34</v>
@@ -2407,7 +2436,7 @@
         <v>留学生</v>
       </c>
       <c r="W4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="X4" t="s">
         <v>34</v>
@@ -2490,8 +2519,8 @@
       <c r="V5" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="2">
-        <v>0.5</v>
+      <c r="X5" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="Y5" t="s">
         <v>42</v>
@@ -2595,8 +2624,8 @@
       <c r="V6" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="2">
-        <v>0.5</v>
+      <c r="X6" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="Y6" t="s">
         <v>55</v>
@@ -2701,10 +2730,10 @@
         <v>33</v>
       </c>
       <c r="V7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y7" t="s">
         <v>42</v>
@@ -2734,7 +2763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2803,10 +2832,10 @@
         <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y8" t="s">
         <v>55</v>
@@ -2901,8 +2930,8 @@
       <c r="V9" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="2">
-        <v>0.5</v>
+      <c r="X9" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="Y9" t="s">
         <v>65</v>
@@ -2992,7 +3021,7 @@
         <v>44</v>
       </c>
       <c r="X10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y10" t="s">
         <v>65</v>
@@ -3082,7 +3111,7 @@
         <v>44</v>
       </c>
       <c r="X11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y11" t="s">
         <v>65</v>
@@ -3169,10 +3198,10 @@
         <v>留学生</v>
       </c>
       <c r="V12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X12" t="s">
         <v>34</v>
@@ -3244,10 +3273,10 @@
         <v>留学生</v>
       </c>
       <c r="V13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X13" t="s">
         <v>34</v>
@@ -3319,10 +3348,10 @@
         <v>留学生</v>
       </c>
       <c r="V14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X14" t="s">
         <v>34</v>
@@ -3394,10 +3423,10 @@
         <v>留学生</v>
       </c>
       <c r="V15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X15" t="s">
         <v>34</v>
@@ -3469,10 +3498,10 @@
         <v>留学生</v>
       </c>
       <c r="V16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X16" t="s">
         <v>34</v>
@@ -3544,10 +3573,10 @@
         <v>留学生</v>
       </c>
       <c r="V17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X17" t="s">
         <v>34</v>
@@ -3619,10 +3648,10 @@
         <v>留学生</v>
       </c>
       <c r="V18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X18" t="s">
         <v>34</v>
@@ -3694,10 +3723,10 @@
         <v>留学生</v>
       </c>
       <c r="V19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X19" t="s">
         <v>34</v>
@@ -3769,10 +3798,10 @@
         <v>留学生</v>
       </c>
       <c r="V20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X20" t="s">
         <v>34</v>
@@ -3844,10 +3873,10 @@
         <v>留学生</v>
       </c>
       <c r="V21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X21" t="s">
         <v>34</v>
@@ -3919,10 +3948,10 @@
         <v>留学生</v>
       </c>
       <c r="V22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X22" t="s">
         <v>34</v>
@@ -3994,10 +4023,10 @@
         <v>留学生</v>
       </c>
       <c r="V23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X23" t="s">
         <v>34</v>
@@ -4069,10 +4098,10 @@
         <v>留学生</v>
       </c>
       <c r="V24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X24" t="s">
         <v>34</v>
@@ -4144,10 +4173,10 @@
         <v>留学生</v>
       </c>
       <c r="V25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X25" t="s">
         <v>34</v>
@@ -4219,10 +4248,10 @@
         <v>留学生</v>
       </c>
       <c r="V26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
         <v>34</v>
@@ -4294,10 +4323,10 @@
         <v>留学生</v>
       </c>
       <c r="V27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X27" t="s">
         <v>34</v>
@@ -4369,10 +4398,10 @@
         <v>留学生</v>
       </c>
       <c r="V28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X28" t="s">
         <v>34</v>
@@ -4444,10 +4473,10 @@
         <v>一般生</v>
       </c>
       <c r="V29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X29" t="s">
         <v>34</v>
@@ -4468,7 +4497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4534,7 +4563,7 @@
         <v>留学生</v>
       </c>
       <c r="W30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X30" t="s">
         <v>34</v>
@@ -4615,7 +4644,7 @@
         <v>46</v>
       </c>
       <c r="X31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y31" t="s">
         <v>35</v>
@@ -4705,13 +4734,13 @@
         <v>留学生</v>
       </c>
       <c r="W32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4777,7 +4806,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="W33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X33" t="s">
         <v>34</v>
@@ -4795,7 +4824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4861,7 +4890,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="W34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X34" t="s">
         <v>34</v>
@@ -5047,7 +5076,7 @@
         <v>46</v>
       </c>
       <c r="X36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y36" t="s">
         <v>42</v>
@@ -5140,7 +5169,7 @@
         <v>46</v>
       </c>
       <c r="X37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y37" t="s">
         <v>42</v>
@@ -5161,7 +5190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5227,13 +5256,13 @@
         <v>一般/留学生</v>
       </c>
       <c r="V38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y38" t="s">
         <v>35</v>
@@ -5254,7 +5283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5320,7 +5349,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="W39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X39" t="s">
         <v>34</v>
@@ -5391,9 +5420,6 @@
         <f t="shared" si="3"/>
         <v>留学生</v>
       </c>
-      <c r="V40" t="s">
-        <v>274</v>
-      </c>
       <c r="X40" t="s">
         <v>34</v>
       </c>
@@ -5464,7 +5490,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="W41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X41" t="s">
         <v>34</v>
@@ -5536,7 +5562,7 @@
         <v>一般生</v>
       </c>
       <c r="W42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X42" t="s">
         <v>34</v>
@@ -5608,13 +5634,13 @@
         <v>留学生</v>
       </c>
       <c r="W43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5680,7 +5706,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="W44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X44" t="s">
         <v>34</v>
@@ -5752,10 +5778,10 @@
         <v>一般生</v>
       </c>
       <c r="V45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5824,10 +5850,10 @@
         <v>一般生</v>
       </c>
       <c r="V46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5896,10 +5922,10 @@
         <v>一般生</v>
       </c>
       <c r="V47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5968,13 +5994,13 @@
         <v>一般生</v>
       </c>
       <c r="V48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X48" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6043,7 +6069,7 @@
         <v>53</v>
       </c>
       <c r="W49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X49" t="s">
         <v>34</v>
@@ -6130,7 +6156,7 @@
         <v>53</v>
       </c>
       <c r="X50" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="Y50" t="s">
         <v>95</v>
@@ -6223,7 +6249,7 @@
         <v>53</v>
       </c>
       <c r="X51" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="Y51" t="s">
         <v>97</v>
@@ -6316,7 +6342,7 @@
         <v>53</v>
       </c>
       <c r="X52" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="Y52" t="s">
         <v>115</v>
@@ -6406,7 +6432,7 @@
         <v>58</v>
       </c>
       <c r="X53" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="Y53" t="s">
         <v>42</v>
@@ -6496,7 +6522,7 @@
         <v>58</v>
       </c>
       <c r="X54" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="Y54" t="s">
         <v>55</v>
@@ -6586,7 +6612,7 @@
         <v>58</v>
       </c>
       <c r="X55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y55" t="s">
         <v>65</v>
@@ -6673,13 +6699,13 @@
         <v>留学生</v>
       </c>
       <c r="W56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6745,7 +6771,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="W57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X57" t="s">
         <v>34</v>
@@ -6757,7 +6783,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6823,13 +6849,13 @@
         <v>一般/留学生</v>
       </c>
       <c r="W58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6895,13 +6921,13 @@
         <v>一般/留学生</v>
       </c>
       <c r="W59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X59" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6967,7 +6993,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="W60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X60" t="s">
         <v>34</v>
@@ -7039,10 +7065,10 @@
         <v>一般/留学生</v>
       </c>
       <c r="V61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X61" t="s">
         <v>34</v>
@@ -7114,10 +7140,10 @@
         <v>一般/留学生</v>
       </c>
       <c r="V62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X62" t="s">
         <v>34</v>
@@ -7189,7 +7215,7 @@
         <v>一般生</v>
       </c>
       <c r="W63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X63" t="s">
         <v>34</v>
@@ -7261,7 +7287,7 @@
         <v>一般生</v>
       </c>
       <c r="W64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X64" t="s">
         <v>34</v>
@@ -7333,7 +7359,7 @@
         <v>一般生</v>
       </c>
       <c r="W65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X65" t="s">
         <v>34</v>
@@ -7405,7 +7431,7 @@
         <v>一般生</v>
       </c>
       <c r="W66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X66" t="s">
         <v>34</v>
@@ -7477,7 +7503,7 @@
         <v>一般生</v>
       </c>
       <c r="W67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X67" t="s">
         <v>34</v>
@@ -7549,7 +7575,7 @@
         <v>一般生</v>
       </c>
       <c r="W68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X68" t="s">
         <v>34</v>
@@ -7747,7 +7773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7813,13 +7839,13 @@
         <v>一般/留学生</v>
       </c>
       <c r="W71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7885,7 +7911,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="W72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X72" t="s">
         <v>34</v>
@@ -7957,10 +7983,10 @@
         <v>一般/留学生</v>
       </c>
       <c r="V73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X73" t="s">
         <v>34</v>
@@ -8032,16 +8058,16 @@
         <v>一般/留学生</v>
       </c>
       <c r="V74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8131,7 +8157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8287,16 +8313,16 @@
         <v>一般/留学生</v>
       </c>
       <c r="V77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8307,7 +8333,7 @@
         <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
         <v>66</v>
@@ -8365,7 +8391,7 @@
         <v>46</v>
       </c>
       <c r="X78" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="Y78" t="s">
         <v>95</v>
@@ -8452,13 +8478,13 @@
         <v>一般生</v>
       </c>
       <c r="W79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X79" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8527,7 +8553,7 @@
         <v>46</v>
       </c>
       <c r="X80" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="Y80" t="s">
         <v>35</v>
@@ -8548,7 +8574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8614,13 +8640,13 @@
         <v>一般生</v>
       </c>
       <c r="W81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8686,13 +8712,13 @@
         <v>一般生</v>
       </c>
       <c r="W82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8758,13 +8784,13 @@
         <v>一般生</v>
       </c>
       <c r="W83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8830,13 +8856,13 @@
         <v>一般生</v>
       </c>
       <c r="W84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8902,13 +8928,13 @@
         <v>一般生</v>
       </c>
       <c r="W85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X85" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8974,13 +9000,13 @@
         <v>一般生</v>
       </c>
       <c r="W86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X86" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9046,13 +9072,13 @@
         <v>一般生</v>
       </c>
       <c r="W87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9118,13 +9144,13 @@
         <v>一般生</v>
       </c>
       <c r="W88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X88" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9190,7 +9216,7 @@
         <v>一般生</v>
       </c>
       <c r="W89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X89" t="s">
         <v>34</v>
@@ -9262,7 +9288,7 @@
         <v>一般生</v>
       </c>
       <c r="W90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X90" t="s">
         <v>34</v>
@@ -9334,7 +9360,7 @@
         <v>一般生</v>
       </c>
       <c r="W91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X91" t="s">
         <v>34</v>
@@ -9406,7 +9432,7 @@
         <v>一般生</v>
       </c>
       <c r="W92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X92" t="s">
         <v>34</v>
@@ -9478,7 +9504,7 @@
         <v>一般生</v>
       </c>
       <c r="W93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X93" t="s">
         <v>34</v>
@@ -9550,7 +9576,7 @@
         <v>一般生</v>
       </c>
       <c r="W94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X94" t="s">
         <v>34</v>
@@ -9622,7 +9648,7 @@
         <v>一般生</v>
       </c>
       <c r="W95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X95" t="s">
         <v>34</v>
@@ -9694,7 +9720,7 @@
         <v>一般生</v>
       </c>
       <c r="W96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X96" t="s">
         <v>34</v>
@@ -9766,7 +9792,7 @@
         <v>一般生</v>
       </c>
       <c r="W97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X97" t="s">
         <v>34</v>
@@ -9838,7 +9864,7 @@
         <v>一般生</v>
       </c>
       <c r="W98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X98" t="s">
         <v>34</v>
@@ -9910,7 +9936,7 @@
         <v>一般生</v>
       </c>
       <c r="W99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X99" t="s">
         <v>34</v>
@@ -9982,7 +10008,7 @@
         <v>一般生</v>
       </c>
       <c r="W100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X100" t="s">
         <v>34</v>
@@ -10054,7 +10080,7 @@
         <v>一般生</v>
       </c>
       <c r="W101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X101" t="s">
         <v>34</v>
@@ -10126,7 +10152,7 @@
         <v>一般生</v>
       </c>
       <c r="W102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X102" t="s">
         <v>34</v>
@@ -10198,7 +10224,7 @@
         <v>一般生</v>
       </c>
       <c r="W103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X103" t="s">
         <v>34</v>
@@ -10270,7 +10296,7 @@
         <v>一般生</v>
       </c>
       <c r="W104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X104" t="s">
         <v>34</v>
@@ -10345,7 +10371,7 @@
         <v>61</v>
       </c>
       <c r="X105" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="AA105" t="s">
         <v>66</v>
@@ -10426,7 +10452,7 @@
         <v>一般生</v>
       </c>
       <c r="W106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X106" t="s">
         <v>34</v>
@@ -10498,7 +10524,7 @@
         <v>一般生</v>
       </c>
       <c r="W107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X107" t="s">
         <v>34</v>
@@ -10570,7 +10596,7 @@
         <v>一般生</v>
       </c>
       <c r="W108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X108" t="s">
         <v>34</v>
@@ -10642,7 +10668,7 @@
         <v>一般生</v>
       </c>
       <c r="W109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X109" t="s">
         <v>34</v>
@@ -10717,7 +10743,7 @@
         <v>61</v>
       </c>
       <c r="X110" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="Y110" t="s">
         <v>42</v>
@@ -10804,7 +10830,7 @@
         <v>61</v>
       </c>
       <c r="X111" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="Y111" t="s">
         <v>55</v>
@@ -10887,8 +10913,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
+      <c r="V112" t="s">
+        <v>281</v>
+      </c>
       <c r="X112" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="AA112" t="s">
         <v>66</v>
@@ -10969,7 +10998,7 @@
         <v>198</v>
       </c>
       <c r="X113" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="Y113" t="s">
         <v>42</v>
@@ -11059,7 +11088,7 @@
         <v>198</v>
       </c>
       <c r="X114" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="Y114" t="s">
         <v>55</v>
@@ -11145,8 +11174,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
+      <c r="V115" t="s">
+        <v>281</v>
+      </c>
       <c r="X115" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="AA115" t="s">
         <v>66</v>
@@ -11223,8 +11255,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
+      <c r="V116" t="s">
+        <v>281</v>
+      </c>
       <c r="X116" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="AA116" t="s">
         <v>66</v>
@@ -11236,7 +11271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11305,7 +11340,7 @@
         <v>46</v>
       </c>
       <c r="X117" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="Y117" t="s">
         <v>42</v>
@@ -11329,7 +11364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11398,7 +11433,7 @@
         <v>46</v>
       </c>
       <c r="X118" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="Y118" t="s">
         <v>55</v>
@@ -11422,7 +11457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11488,13 +11523,13 @@
         <v>一般生</v>
       </c>
       <c r="W119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X119" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11560,10 +11595,10 @@
         <v>一般/留学生</v>
       </c>
       <c r="V120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X120" t="s">
         <v>34</v>
@@ -11638,16 +11673,16 @@
         <v>留学生</v>
       </c>
       <c r="V121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X121" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11713,13 +11748,13 @@
         <v>一般生</v>
       </c>
       <c r="W122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X122" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11785,13 +11820,13 @@
         <v>一般生</v>
       </c>
       <c r="W123" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X123" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11857,7 +11892,7 @@
         <v>一般生</v>
       </c>
       <c r="W124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X124" t="s">
         <v>34</v>
@@ -11929,13 +11964,13 @@
         <v>一般生</v>
       </c>
       <c r="W125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X125" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12001,7 +12036,7 @@
         <v>一般生</v>
       </c>
       <c r="W126" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X126" t="s">
         <v>34</v>
@@ -12073,7 +12108,7 @@
         <v>一般生</v>
       </c>
       <c r="W127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X127" t="s">
         <v>34</v>
@@ -12144,6 +12179,9 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
+      <c r="V128" t="s">
+        <v>275</v>
+      </c>
       <c r="X128" t="s">
         <v>34</v>
       </c>
@@ -12166,7 +12204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -12321,6 +12359,9 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
+      <c r="V130" t="s">
+        <v>275</v>
+      </c>
       <c r="X130" t="s">
         <v>34</v>
       </c>
@@ -12343,7 +12384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -12498,6 +12539,9 @@
         <f t="shared" si="11"/>
         <v>一般生</v>
       </c>
+      <c r="V132" t="s">
+        <v>275</v>
+      </c>
       <c r="X132" t="s">
         <v>34</v>
       </c>
@@ -12523,7 +12567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -12615,7 +12659,7 @@
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V136" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W136" s="4">
         <f t="shared" ref="W136:W148" si="12">COUNTIF($W$2:$W$135,V136)</f>
@@ -12624,7 +12668,7 @@
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V137" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W137" s="4">
         <f t="shared" si="12"/>
@@ -12633,7 +12677,7 @@
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V138" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W138" s="4">
         <f t="shared" si="12"/>
@@ -12642,7 +12686,7 @@
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V139" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W139" s="4">
         <f t="shared" si="12"/>
@@ -12651,7 +12695,7 @@
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V140" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W140" s="4">
         <f t="shared" si="12"/>
@@ -12660,7 +12704,7 @@
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V141" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W141" s="4">
         <f t="shared" si="12"/>
@@ -12669,7 +12713,7 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V142" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W142" s="4">
         <f t="shared" si="12"/>
@@ -12678,7 +12722,7 @@
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V143" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W143" s="4">
         <f t="shared" si="12"/>
@@ -12687,7 +12731,7 @@
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V144" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W144" s="4">
         <f t="shared" si="12"/>
@@ -12696,7 +12740,7 @@
     </row>
     <row r="145" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V145" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W145" s="4">
         <f t="shared" si="12"/>
@@ -12705,7 +12749,7 @@
     </row>
     <row r="146" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V146" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W146" s="4">
         <f t="shared" si="12"/>
@@ -12714,7 +12758,7 @@
     </row>
     <row r="147" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V147" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W147" s="4">
         <f t="shared" si="12"/>
@@ -12735,16 +12779,19 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="21">
+    <filterColumn colId="18">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="19">
       <filters>
-        <filter val="植田"/>
+        <filter val="一般/留学生"/>
+        <filter val="一般生"/>
       </filters>
     </filterColumn>
     <filterColumn colId="23">
       <filters>
-        <filter val="50%"/>
-        <filter val="依頼中"/>
-        <filter val="岡本先生チェック依頼中"/>
         <filter val="着手"/>
         <filter val="未着手"/>
       </filters>

--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="4410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27090" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="シラバス・年間指導計画・授業資料作成担当者" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="287">
   <si>
     <t>番号</t>
   </si>
@@ -850,13 +850,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ミヤナガ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>木村</t>
-    <rPh sb="0" eb="2">
-      <t>キムラ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1082,6 +1075,51 @@
     <rPh sb="0" eb="2">
       <t>ウエダ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>金、青木</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アオキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>木村、清末</t>
+    <rPh sb="0" eb="2">
+      <t>キムラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キヨスエ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>金、木村、清原</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キムラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キヨハラ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>①②</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>①③</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2039,10 +2077,10 @@
   <dimension ref="A1:AO148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V39" activeCellId="1" sqref="V33:V34 V39"/>
+      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2061,7 +2099,7 @@
     <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.5" customWidth="1"/>
     <col min="22" max="22" width="21.25" customWidth="1"/>
-    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="15.25" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.125" bestFit="1" customWidth="1"/>
@@ -2133,10 +2171,10 @@
         <v>14</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="X1" t="s">
         <v>15</v>
@@ -2370,7 +2408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2436,10 +2474,13 @@
         <v>留学生</v>
       </c>
       <c r="W4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X4" t="s">
         <v>34</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
       </c>
       <c r="AB4" t="s">
         <v>32</v>
@@ -2520,7 +2561,7 @@
         <v>50</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y5" t="s">
         <v>42</v>
@@ -2625,7 +2666,7 @@
         <v>50</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y6" t="s">
         <v>55</v>
@@ -2730,7 +2771,7 @@
         <v>33</v>
       </c>
       <c r="V7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X7" t="s">
         <v>235</v>
@@ -2832,7 +2873,7 @@
         <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X8" t="s">
         <v>235</v>
@@ -2931,7 +2972,7 @@
         <v>50</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y9" t="s">
         <v>65</v>
@@ -3132,7 +3173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3198,13 +3239,16 @@
         <v>留学生</v>
       </c>
       <c r="V12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W12" t="s">
         <v>250</v>
       </c>
       <c r="X12" t="s">
         <v>34</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
@@ -3273,16 +3317,13 @@
         <v>留学生</v>
       </c>
       <c r="V13" t="s">
-        <v>272</v>
-      </c>
-      <c r="W13" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="X13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3348,13 +3389,16 @@
         <v>留学生</v>
       </c>
       <c r="V14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W14" t="s">
         <v>250</v>
       </c>
       <c r="X14" t="s">
         <v>34</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
@@ -3423,16 +3467,13 @@
         <v>留学生</v>
       </c>
       <c r="V15" t="s">
-        <v>272</v>
-      </c>
-      <c r="W15" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="X15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3498,13 +3539,16 @@
         <v>留学生</v>
       </c>
       <c r="V16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W16" t="s">
         <v>250</v>
       </c>
       <c r="X16" t="s">
         <v>34</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -3573,16 +3617,13 @@
         <v>留学生</v>
       </c>
       <c r="V17" t="s">
-        <v>272</v>
-      </c>
-      <c r="W17" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="X17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3648,13 +3689,16 @@
         <v>留学生</v>
       </c>
       <c r="V18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W18" t="s">
         <v>250</v>
       </c>
       <c r="X18" t="s">
         <v>34</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -3723,16 +3767,13 @@
         <v>留学生</v>
       </c>
       <c r="V19" t="s">
-        <v>272</v>
-      </c>
-      <c r="W19" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="X19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3798,13 +3839,16 @@
         <v>留学生</v>
       </c>
       <c r="V20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W20" t="s">
         <v>250</v>
       </c>
       <c r="X20" t="s">
         <v>34</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -3873,16 +3917,13 @@
         <v>留学生</v>
       </c>
       <c r="V21" t="s">
-        <v>272</v>
-      </c>
-      <c r="W21" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="X21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3948,13 +3989,16 @@
         <v>留学生</v>
       </c>
       <c r="V22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W22" t="s">
         <v>250</v>
       </c>
       <c r="X22" t="s">
         <v>34</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -4023,16 +4067,13 @@
         <v>留学生</v>
       </c>
       <c r="V23" t="s">
-        <v>272</v>
-      </c>
-      <c r="W23" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="X23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4098,13 +4139,16 @@
         <v>留学生</v>
       </c>
       <c r="V24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W24" t="s">
         <v>250</v>
       </c>
       <c r="X24" t="s">
         <v>34</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -4173,16 +4217,13 @@
         <v>留学生</v>
       </c>
       <c r="V25" t="s">
-        <v>272</v>
-      </c>
-      <c r="W25" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="X25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4248,13 +4289,16 @@
         <v>留学生</v>
       </c>
       <c r="V26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W26" t="s">
         <v>250</v>
       </c>
       <c r="X26" t="s">
         <v>34</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -4323,16 +4367,13 @@
         <v>留学生</v>
       </c>
       <c r="V27" t="s">
-        <v>272</v>
-      </c>
-      <c r="W27" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="X27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4398,13 +4439,16 @@
         <v>留学生</v>
       </c>
       <c r="V28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W28" t="s">
         <v>250</v>
       </c>
       <c r="X28" t="s">
         <v>34</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.4">
@@ -4473,7 +4517,7 @@
         <v>一般生</v>
       </c>
       <c r="V29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W29" t="s">
         <v>241</v>
@@ -4497,7 +4541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4563,10 +4607,13 @@
         <v>留学生</v>
       </c>
       <c r="W30" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s">
         <v>34</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>35</v>
       </c>
       <c r="AH30" t="s">
         <v>38</v>
@@ -4668,7 +4715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4734,10 +4781,13 @@
         <v>留学生</v>
       </c>
       <c r="W32" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="X32" t="s">
         <v>34</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.4">
@@ -4812,7 +4862,7 @@
         <v>34</v>
       </c>
       <c r="Y33" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="Z33">
         <v>16</v>
@@ -4896,7 +4946,7 @@
         <v>34</v>
       </c>
       <c r="Y34" t="s">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="Z34">
         <v>16</v>
@@ -5259,7 +5309,7 @@
         <v>238</v>
       </c>
       <c r="W38" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="X38" t="s">
         <v>237</v>
@@ -5283,7 +5333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5348,9 +5398,6 @@
         <f t="shared" si="3"/>
         <v>一般/留学生</v>
       </c>
-      <c r="W39" t="s">
-        <v>243</v>
-      </c>
       <c r="X39" t="s">
         <v>34</v>
       </c>
@@ -5424,7 +5471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5490,13 +5537,16 @@
         <v>一般/留学生</v>
       </c>
       <c r="W41" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="X41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Y41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5562,13 +5612,16 @@
         <v>一般生</v>
       </c>
       <c r="W42" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="X42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Y42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5634,13 +5687,16 @@
         <v>留学生</v>
       </c>
       <c r="W43" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="X43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="Y43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5705,9 +5761,6 @@
         <f t="shared" si="3"/>
         <v>一般/留学生</v>
       </c>
-      <c r="W44" t="s">
-        <v>242</v>
-      </c>
       <c r="X44" t="s">
         <v>34</v>
       </c>
@@ -5778,10 +5831,10 @@
         <v>一般生</v>
       </c>
       <c r="V45" t="s">
+        <v>272</v>
+      </c>
+      <c r="X45" t="s">
         <v>273</v>
-      </c>
-      <c r="X45" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5850,10 +5903,10 @@
         <v>一般生</v>
       </c>
       <c r="V46" t="s">
+        <v>272</v>
+      </c>
+      <c r="X46" t="s">
         <v>273</v>
-      </c>
-      <c r="X46" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5922,10 +5975,10 @@
         <v>一般生</v>
       </c>
       <c r="V47" t="s">
+        <v>272</v>
+      </c>
+      <c r="X47" t="s">
         <v>273</v>
-      </c>
-      <c r="X47" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
@@ -5994,10 +6047,10 @@
         <v>一般生</v>
       </c>
       <c r="V48" t="s">
+        <v>272</v>
+      </c>
+      <c r="X48" t="s">
         <v>273</v>
-      </c>
-      <c r="X48" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.4">
@@ -6156,7 +6209,7 @@
         <v>53</v>
       </c>
       <c r="X50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y50" t="s">
         <v>95</v>
@@ -6249,7 +6302,7 @@
         <v>53</v>
       </c>
       <c r="X51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y51" t="s">
         <v>97</v>
@@ -6342,7 +6395,7 @@
         <v>53</v>
       </c>
       <c r="X52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y52" t="s">
         <v>115</v>
@@ -6432,7 +6485,7 @@
         <v>58</v>
       </c>
       <c r="X53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y53" t="s">
         <v>42</v>
@@ -6522,7 +6575,7 @@
         <v>58</v>
       </c>
       <c r="X54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y54" t="s">
         <v>55</v>
@@ -6698,9 +6751,6 @@
         <f t="shared" si="3"/>
         <v>留学生</v>
       </c>
-      <c r="W56" t="s">
-        <v>251</v>
-      </c>
       <c r="X56" t="s">
         <v>34</v>
       </c>
@@ -6771,11 +6821,14 @@
         <v>一般/留学生</v>
       </c>
       <c r="W57" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="X57" t="s">
         <v>34</v>
       </c>
+      <c r="Y57" t="s">
+        <v>35</v>
+      </c>
       <c r="AH57" t="s">
         <v>121</v>
       </c>
@@ -6783,7 +6836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6848,9 +6901,6 @@
         <f t="shared" si="3"/>
         <v>一般/留学生</v>
       </c>
-      <c r="W58" t="s">
-        <v>252</v>
-      </c>
       <c r="X58" t="s">
         <v>34</v>
       </c>
@@ -6926,8 +6976,11 @@
       <c r="X59" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="Y59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6992,9 +7045,6 @@
         <f t="shared" si="3"/>
         <v>一般/留学生</v>
       </c>
-      <c r="W60" t="s">
-        <v>246</v>
-      </c>
       <c r="X60" t="s">
         <v>34</v>
       </c>
@@ -7065,16 +7115,19 @@
         <v>一般/留学生</v>
       </c>
       <c r="V61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X61" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="Y61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7140,16 +7193,13 @@
         <v>一般/留学生</v>
       </c>
       <c r="V62" t="s">
-        <v>269</v>
-      </c>
-      <c r="W62" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="X62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7220,6 +7270,9 @@
       <c r="X63" t="s">
         <v>34</v>
       </c>
+      <c r="Y63" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64">
@@ -7286,14 +7339,11 @@
         <f t="shared" si="3"/>
         <v>一般生</v>
       </c>
-      <c r="W64" t="s">
-        <v>247</v>
-      </c>
       <c r="X64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7364,6 +7414,9 @@
       <c r="X65" t="s">
         <v>34</v>
       </c>
+      <c r="Y65" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66">
@@ -7430,14 +7483,11 @@
         <f t="shared" si="3"/>
         <v>一般生</v>
       </c>
-      <c r="W66" t="s">
-        <v>244</v>
-      </c>
       <c r="X66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7508,6 +7558,9 @@
       <c r="X67" t="s">
         <v>34</v>
       </c>
+      <c r="Y67" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68">
@@ -7574,9 +7627,6 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W68" t="s">
-        <v>244</v>
-      </c>
       <c r="X68" t="s">
         <v>34</v>
       </c>
@@ -7844,6 +7894,9 @@
       <c r="X71" t="s">
         <v>34</v>
       </c>
+      <c r="Y71" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A72">
@@ -7916,6 +7969,9 @@
       <c r="X72" t="s">
         <v>34</v>
       </c>
+      <c r="Y72" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A73">
@@ -7983,16 +8039,19 @@
         <v>一般/留学生</v>
       </c>
       <c r="V73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W73" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="X73" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="Y73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8058,10 +8117,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="V74" t="s">
-        <v>269</v>
-      </c>
-      <c r="W74" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="X74" t="s">
         <v>34</v>
@@ -8247,7 +8303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8313,10 +8369,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="V77" t="s">
-        <v>269</v>
-      </c>
-      <c r="W77" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="X77" t="s">
         <v>34</v>
@@ -8391,7 +8444,7 @@
         <v>46</v>
       </c>
       <c r="X78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y78" t="s">
         <v>95</v>
@@ -8477,9 +8530,6 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W79" t="s">
-        <v>248</v>
-      </c>
       <c r="X79" t="s">
         <v>34</v>
       </c>
@@ -8553,7 +8603,7 @@
         <v>46</v>
       </c>
       <c r="X80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y80" t="s">
         <v>35</v>
@@ -8574,7 +8624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8639,14 +8689,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W81" t="s">
-        <v>248</v>
-      </c>
       <c r="X81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8711,14 +8758,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W82" t="s">
-        <v>248</v>
-      </c>
       <c r="X82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8783,14 +8827,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W83" t="s">
-        <v>248</v>
-      </c>
       <c r="X83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8856,13 +8897,16 @@
         <v>一般生</v>
       </c>
       <c r="W84" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="X84" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8927,14 +8971,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W85" t="s">
-        <v>248</v>
-      </c>
       <c r="X85" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8999,14 +9040,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W86" t="s">
-        <v>248</v>
-      </c>
       <c r="X86" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9071,14 +9109,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W87" t="s">
-        <v>248</v>
-      </c>
       <c r="X87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9149,8 +9184,11 @@
       <c r="X88" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9215,14 +9253,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W89" t="s">
-        <v>248</v>
-      </c>
       <c r="X89" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9287,14 +9322,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W90" t="s">
-        <v>248</v>
-      </c>
       <c r="X90" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9359,14 +9391,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W91" t="s">
-        <v>248</v>
-      </c>
       <c r="X91" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9431,14 +9460,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W92" t="s">
-        <v>243</v>
-      </c>
       <c r="X92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9503,14 +9529,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W93" t="s">
-        <v>241</v>
-      </c>
       <c r="X93" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9581,8 +9604,11 @@
       <c r="X94" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Y94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9647,14 +9673,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W95" t="s">
-        <v>241</v>
-      </c>
       <c r="X95" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9719,9 +9742,6 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W96" t="s">
-        <v>241</v>
-      </c>
       <c r="X96" t="s">
         <v>34</v>
       </c>
@@ -9791,14 +9811,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W97" t="s">
-        <v>241</v>
-      </c>
       <c r="X97" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9869,6 +9886,9 @@
       <c r="X98" t="s">
         <v>34</v>
       </c>
+      <c r="Y98" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99">
@@ -9935,14 +9955,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W99" t="s">
-        <v>244</v>
-      </c>
       <c r="X99" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10013,6 +10030,9 @@
       <c r="X100" t="s">
         <v>34</v>
       </c>
+      <c r="Y100" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101">
@@ -10079,9 +10099,6 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W101" t="s">
-        <v>244</v>
-      </c>
       <c r="X101" t="s">
         <v>34</v>
       </c>
@@ -10151,9 +10168,6 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W102" t="s">
-        <v>244</v>
-      </c>
       <c r="X102" t="s">
         <v>34</v>
       </c>
@@ -10223,14 +10237,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W103" t="s">
-        <v>244</v>
-      </c>
       <c r="X103" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10301,6 +10312,9 @@
       <c r="X104" t="s">
         <v>34</v>
       </c>
+      <c r="Y104" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105">
@@ -10371,7 +10385,7 @@
         <v>61</v>
       </c>
       <c r="X105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA105" t="s">
         <v>66</v>
@@ -10451,14 +10465,11 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W106" t="s">
-        <v>243</v>
-      </c>
       <c r="X106" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10529,8 +10540,11 @@
       <c r="X107" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Y107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10601,6 +10615,9 @@
       <c r="X108" t="s">
         <v>34</v>
       </c>
+      <c r="Y108" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109">
@@ -10667,9 +10684,6 @@
         <f t="shared" si="7"/>
         <v>一般生</v>
       </c>
-      <c r="W109" t="s">
-        <v>241</v>
-      </c>
       <c r="X109" t="s">
         <v>34</v>
       </c>
@@ -10743,7 +10757,7 @@
         <v>61</v>
       </c>
       <c r="X110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y110" t="s">
         <v>42</v>
@@ -10830,7 +10844,7 @@
         <v>61</v>
       </c>
       <c r="X111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y111" t="s">
         <v>55</v>
@@ -10914,10 +10928,10 @@
         <v>一般生</v>
       </c>
       <c r="V112" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X112" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA112" t="s">
         <v>66</v>
@@ -10998,7 +11012,7 @@
         <v>198</v>
       </c>
       <c r="X113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y113" t="s">
         <v>42</v>
@@ -11088,7 +11102,7 @@
         <v>198</v>
       </c>
       <c r="X114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y114" t="s">
         <v>55</v>
@@ -11175,10 +11189,10 @@
         <v>一般生</v>
       </c>
       <c r="V115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA115" t="s">
         <v>66</v>
@@ -11256,10 +11270,10 @@
         <v>一般生</v>
       </c>
       <c r="V116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X116" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA116" t="s">
         <v>66</v>
@@ -11340,7 +11354,7 @@
         <v>46</v>
       </c>
       <c r="X117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y117" t="s">
         <v>42</v>
@@ -11433,7 +11447,7 @@
         <v>46</v>
       </c>
       <c r="X118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y118" t="s">
         <v>55</v>
@@ -11595,7 +11609,7 @@
         <v>一般/留学生</v>
       </c>
       <c r="V120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W120" t="s">
         <v>249</v>
@@ -11607,7 +11621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11673,7 +11687,7 @@
         <v>留学生</v>
       </c>
       <c r="V121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W121" t="s">
         <v>249</v>
@@ -11898,7 +11912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12042,7 +12056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12180,7 +12194,7 @@
         <v>一般生</v>
       </c>
       <c r="V128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X128" t="s">
         <v>34</v>
@@ -12360,7 +12374,7 @@
         <v>一般生</v>
       </c>
       <c r="V130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X130" t="s">
         <v>34</v>
@@ -12540,7 +12554,7 @@
         <v>一般生</v>
       </c>
       <c r="V132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X132" t="s">
         <v>34</v>
@@ -12659,52 +12673,52 @@
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V136" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W136" s="4">
         <f t="shared" ref="W136:W148" si="12">COUNTIF($W$2:$W$135,V136)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V137" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W137" s="4">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V138" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W138" s="4">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V139" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W139" s="4">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V140" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W140" s="4">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V141" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W141" s="4">
         <f t="shared" si="12"/>
@@ -12713,52 +12727,52 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V142" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W142" s="4">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V143" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W143" s="4">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.4">
       <c r="V144" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W144" s="4">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V145" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W145" s="4">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V146" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W146" s="4">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="22:23" x14ac:dyDescent="0.4">
       <c r="V147" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W147" s="4">
         <f t="shared" si="12"/>
@@ -12774,27 +12788,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AI133">
-    <filterColumn colId="17">
+    <filterColumn colId="16">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="18">
+    <filterColumn colId="22">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
-    </filterColumn>
-    <filterColumn colId="19">
-      <filters>
-        <filter val="一般/留学生"/>
-        <filter val="一般生"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="23">
-      <filters>
-        <filter val="着手"/>
-        <filter val="未着手"/>
-      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="18"/>

--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="288">
   <si>
     <t>番号</t>
   </si>
@@ -1111,15 +1111,19 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>①②</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>①③</t>
+    <t>①②③④</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>①③④</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2073,14 +2077,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2480,7 +2483,7 @@
         <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="AB4" t="s">
         <v>32</v>
@@ -2492,7 +2495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3248,10 +3251,10 @@
         <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3398,10 +3401,10 @@
         <v>34</v>
       </c>
       <c r="Y14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3548,10 +3551,10 @@
         <v>34</v>
       </c>
       <c r="Y16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3698,10 +3701,10 @@
         <v>34</v>
       </c>
       <c r="Y18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3848,10 +3851,10 @@
         <v>34</v>
       </c>
       <c r="Y20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3998,10 +4001,10 @@
         <v>34</v>
       </c>
       <c r="Y22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4148,10 +4151,10 @@
         <v>34</v>
       </c>
       <c r="Y24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4298,10 +4301,10 @@
         <v>34</v>
       </c>
       <c r="Y26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>34</v>
       </c>
       <c r="Y28" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.4">
@@ -4619,7 +4622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>242</v>
       </c>
       <c r="X32" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s">
         <v>284</v>
@@ -4859,10 +4862,10 @@
         <v>242</v>
       </c>
       <c r="X33" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z33">
         <v>16</v>
@@ -4946,7 +4949,7 @@
         <v>34</v>
       </c>
       <c r="Y34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z34">
         <v>16</v>
@@ -4958,7 +4961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>34</v>
       </c>
       <c r="Y41" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.4">
@@ -5693,10 +5696,10 @@
         <v>34</v>
       </c>
       <c r="Y43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7124,10 +7127,10 @@
         <v>34</v>
       </c>
       <c r="Y61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7271,10 +7274,10 @@
         <v>34</v>
       </c>
       <c r="Y63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7415,10 +7418,10 @@
         <v>34</v>
       </c>
       <c r="Y65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7559,10 +7562,10 @@
         <v>34</v>
       </c>
       <c r="Y67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7631,7 +7634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7895,7 +7898,7 @@
         <v>34</v>
       </c>
       <c r="Y71" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.4">
@@ -7970,7 +7973,7 @@
         <v>34</v>
       </c>
       <c r="Y72" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.4">
@@ -8048,10 +8051,10 @@
         <v>34</v>
       </c>
       <c r="Y73" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8213,7 +8216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8375,7 +8378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8534,7 +8537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8762,7 +8765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8906,7 +8909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8975,7 +8978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9257,7 +9260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9326,7 +9329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9608,7 +9611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9677,7 +9680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9887,10 +9890,10 @@
         <v>34</v>
       </c>
       <c r="Y98" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10313,10 +10316,10 @@
         <v>34</v>
       </c>
       <c r="Y104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>34</v>
       </c>
       <c r="Y107" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.4">
@@ -10616,10 +10619,10 @@
         <v>34</v>
       </c>
       <c r="Y108" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11033,7 +11036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11123,7 +11126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11285,7 +11288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11378,7 +11381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12128,7 +12131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -12218,7 +12221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -12308,7 +12311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -12398,7 +12401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -12488,7 +12491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -12581,7 +12584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -12787,18 +12790,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI133">
-    <filterColumn colId="16">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AI133"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/シラバス・年間指導計画・授業資料作成担当者.xlsx
+++ b/シラバス・年間指導計画・授業資料作成担当者.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="シラバス・年間指導計画・授業資料作成担当者" sheetId="1" r:id="rId1"/>
@@ -2266,13 +2266,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AJ38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -2281,14 +2282,14 @@
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="23.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="25.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="25.25" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.5" customWidth="1"/>
@@ -2417,7 +2418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>114</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>115</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>84</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>85</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>86</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>83</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>103</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>64</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>65</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>34</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>132</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>128</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>130</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>62</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>63</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>43</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>39</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>53</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>40</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>72</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>54</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>9</v>
       </c>
@@ -5876,7 +5877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>120</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>126</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>29</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>78</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>55</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>131</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>127</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>129</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>87</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>88</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>79</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>80</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>81</v>
       </c>
@@ -7068,7 +7069,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>82</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>76</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>75</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>89</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>90</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>10</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>73</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>31</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>35</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>36</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3</v>
       </c>
@@ -8262,7 +8263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>91</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>42</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>41</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>37</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>106</v>
       </c>
@@ -8811,7 +8812,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>105</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>116</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>117</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>8</v>
       </c>
@@ -9249,7 +9250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>94</v>
       </c>
@@ -9321,7 +9322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>95</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>96</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>93</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>92</v>
       </c>
@@ -9612,7 +9613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>97</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>123</v>
       </c>
@@ -9912,7 +9913,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>124</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>17</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>18</v>
       </c>
@@ -10614,7 +10615,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>
@@ -10686,7 +10687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>101</v>
       </c>
@@ -10758,7 +10759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>102</v>
       </c>
@@ -10830,7 +10831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>99</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>19</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>11</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>20</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>12</v>
       </c>
@@ -11217,7 +11218,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>108</v>
       </c>
@@ -11286,7 +11287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>66</v>
       </c>
@@ -11361,7 +11362,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>67</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>58</v>
       </c>
@@ -11511,7 +11512,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>59</v>
       </c>
@@ -11925,7 +11926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>98</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>21</v>
       </c>
@@ -12075,7 +12076,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>13</v>
       </c>
@@ -12153,7 +12154,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>22</v>
       </c>
@@ -12231,7 +12232,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>14</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>25</v>
       </c>
@@ -12387,7 +12388,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>15</v>
       </c>
@@ -12465,7 +12466,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>23</v>
       </c>
@@ -12543,7 +12544,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>26</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:35" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>16</v>
       </c>
@@ -12699,7 +12700,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>24</v>
       </c>
@@ -12777,7 +12778,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>27</v>
       </c>
@@ -12855,7 +12856,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>6</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>7</v>
       </c>
@@ -13047,7 +13048,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>107</v>
       </c>
@@ -13238,7 +13239,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI133"/>
+  <autoFilter ref="A1:AI133">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="4"/>
+        <filter val="6"/>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
